--- a/test_data/tiny_44147.tsv_out.xlsx
+++ b/test_data/tiny_44147.tsv_out.xlsx
@@ -28,15 +28,15 @@
     <t>°C</t>
   </si>
   <si>
-    <t xml:space="preserve">Client:Gaz de France
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Well No.:K/12-G8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field:K/12
+    <t xml:space="preserve">Client:ABC
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well No.:ABC-8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field:ABC
 </t>
   </si>
   <si>
